--- a/data/trans_bre/P1001-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,91</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>98,31%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 15,57</t>
+          <t>7,8; 14,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,99; 158,88</t>
+          <t>55,11; 161,03</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>56,26%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,54</t>
+          <t>0,38; 4,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,15; 97,66</t>
+          <t>7,57; 119,14</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,9%</t>
+          <t>78,76%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,73</t>
+          <t>0,8; 5,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 196,59</t>
+          <t>11,86; 195,13</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>87,67%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,73</t>
+          <t>3,03; 6,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,21; 118,79</t>
+          <t>48,52; 140,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1001-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 5,46</t>
+          <t>-0,12; 5,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 14,23</t>
+          <t>7,2; 14,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 16,65</t>
+          <t>10,04; 16,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 14,93</t>
+          <t>8,27; 15,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 56,61</t>
+          <t>-0,92; 55,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,85; 125,07</t>
+          <t>49,42; 123,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,73; 211,97</t>
+          <t>90,15; 213,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,11; 161,03</t>
+          <t>60,38; 157,03</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,08</t>
+          <t>1,92; 5,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,06</t>
+          <t>3,58; 7,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,47</t>
+          <t>1,23; 4,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,74</t>
+          <t>0,36; 4,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,61; 163,68</t>
+          <t>42,53; 171,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,85; 175,9</t>
+          <t>68,51; 180,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 90,81</t>
+          <t>18,36; 88,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 119,14</t>
+          <t>9,99; 127,11</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,64</t>
+          <t>-1,05; 4,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,77</t>
+          <t>-2,76; 3,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,82</t>
+          <t>0,73; 5,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,84</t>
+          <t>0,63; 5,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 162,66</t>
+          <t>-22,44; 150,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,31; 120,13</t>
+          <t>-46,27; 130,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 308,09</t>
+          <t>13,25; 281,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,86; 195,13</t>
+          <t>6,58; 198,21</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>1,98; 4,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,04</t>
+          <t>6,11; 9,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,63</t>
+          <t>4,68; 7,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,71</t>
+          <t>3,04; 6,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 87,28</t>
+          <t>29,8; 85,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,52; 139,07</t>
+          <t>78,55; 143,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,84; 138,69</t>
+          <t>69,69; 136,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,52; 140,46</t>
+          <t>50,32; 144,72</t>
         </is>
       </c>
     </row>
